--- a/biology/Médecine/Syndrome_de_Char/Syndrome_de_Char.xlsx
+++ b/biology/Médecine/Syndrome_de_Char/Syndrome_de_Char.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Char est l’association d’anomalies du cinquième doigt, d’une cardiopathie congénitale à type de persistance du canal artériel et d’un visage caractéristique.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène TFAP2B situé au niveau du locus q24.1 du chromosome 6. Cette mutation est retrouvée dans 50 % des individus porteurs de cette affection
 </t>
@@ -542,7 +556,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnue mais très faible
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le syndrome de Char est  l’association de :
 Visage caractéristique comprenant : aplatissement du visage, nez court et narines antéversées
@@ -608,13 +626,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Avec les syndromes à faciès caractéristique
-Le visage est tellement caractéristique que le diagnostic différentiel se pose presque uniquement avec le syndrome de Binder
-Avec une persistance du canal artériel
-La persistance du canal artériel est une cardiopathie congénitale très fréquente.
+          <t>Avec les syndromes à faciès caractéristique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le visage est tellement caractéristique que le diagnostic différentiel se pose presque uniquement avec le syndrome de Binder
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avec une persistance du canal artériel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La persistance du canal artériel est une cardiopathie congénitale très fréquente.
 Mais il existe syndrome canal artériel et anomalie du cinquième doigt sans anomalie du visage
-Avec les syndromes anomalie cardiaque et anomalie des mains
-Syndrome de Holt-Oram
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Avec les syndromes anomalie cardiaque et anomalie des mains</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Syndrome de Holt-Oram
 Syndrome de Tabatznik
 Syndrome Cœur-main type III
 Syndrome thrombocytopénie-absence de radius
@@ -626,62 +719,66 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Char</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission autosomique dominante
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Char</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Char</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Site en français de renseignement sur les maladies rares et les médicaments orphelins
 Site en anglais incontournable pour les maladies génétiques
